--- a/natmiOut/YoungD4/LR-pairs_lrc2p/Cdh1-Igf1r.xlsx
+++ b/natmiOut/YoungD4/LR-pairs_lrc2p/Cdh1-Igf1r.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -82,6 +82,9 @@
     <t>M2</t>
   </si>
   <si>
+    <t>sCs</t>
+  </si>
+  <si>
     <t>Cdh1</t>
   </si>
   <si>
@@ -92,9 +95,6 @@
   </si>
   <si>
     <t>FAPs</t>
-  </si>
-  <si>
-    <t>sCs</t>
   </si>
 </sst>
 </file>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T11"/>
+  <dimension ref="A1:T16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,61 +525,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.382913583586757</v>
+        <v>0.4197659999999999</v>
       </c>
       <c r="H2">
-        <v>0.382913583586757</v>
+        <v>1.259298</v>
       </c>
       <c r="I2">
-        <v>0.5431357083184015</v>
+        <v>0.4104130959562529</v>
       </c>
       <c r="J2">
-        <v>0.5431357083184015</v>
+        <v>0.4104130959562529</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>11.9386676873139</v>
+        <v>12.42467</v>
       </c>
       <c r="N2">
-        <v>11.9386676873139</v>
+        <v>37.27401</v>
       </c>
       <c r="O2">
-        <v>0.3296206777838384</v>
+        <v>0.3327007343951245</v>
       </c>
       <c r="P2">
-        <v>0.3296206777838384</v>
+        <v>0.3327007343951245</v>
       </c>
       <c r="Q2">
-        <v>4.571478027400786</v>
+        <v>5.215454027219999</v>
       </c>
       <c r="R2">
-        <v>4.571478027400786</v>
+        <v>46.93908624497999</v>
       </c>
       <c r="S2">
-        <v>0.1790287603045166</v>
+        <v>0.136544738430022</v>
       </c>
       <c r="T2">
-        <v>0.1790287603045166</v>
+        <v>0.136544738430022</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,61 +587,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.382913583586757</v>
+        <v>0.4197659999999999</v>
       </c>
       <c r="H3">
-        <v>0.382913583586757</v>
+        <v>1.259298</v>
       </c>
       <c r="I3">
-        <v>0.5431357083184015</v>
+        <v>0.4104130959562529</v>
       </c>
       <c r="J3">
-        <v>0.5431357083184015</v>
+        <v>0.4104130959562529</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>12.4309598417779</v>
+        <v>12.45773566666667</v>
       </c>
       <c r="N3">
-        <v>12.4309598417779</v>
+        <v>37.373207</v>
       </c>
       <c r="O3">
-        <v>0.3432126193532078</v>
+        <v>0.3335861479782027</v>
       </c>
       <c r="P3">
-        <v>0.3432126193532078</v>
+        <v>0.3335861479782027</v>
       </c>
       <c r="Q3">
-        <v>4.759983380438241</v>
+        <v>5.229333869853999</v>
       </c>
       <c r="R3">
-        <v>4.759983380438241</v>
+        <v>47.064004828686</v>
       </c>
       <c r="S3">
-        <v>0.1864110291162185</v>
+        <v>0.1369081237598549</v>
       </c>
       <c r="T3">
-        <v>0.1864110291162185</v>
+        <v>0.1369081237598549</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,61 +649,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D4" t="s">
         <v>20</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.382913583586757</v>
+        <v>0.4197659999999999</v>
       </c>
       <c r="H4">
-        <v>0.382913583586757</v>
+        <v>1.259298</v>
       </c>
       <c r="I4">
-        <v>0.5431357083184015</v>
+        <v>0.4104130959562529</v>
       </c>
       <c r="J4">
-        <v>0.5431357083184015</v>
+        <v>0.4104130959562529</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>3.53551767599529</v>
+        <v>3.546802333333333</v>
       </c>
       <c r="N4">
-        <v>3.53551767599529</v>
+        <v>10.640407</v>
       </c>
       <c r="O4">
-        <v>0.09761388483211138</v>
+        <v>0.09497425211730705</v>
       </c>
       <c r="P4">
-        <v>0.09761388483211138</v>
+        <v>0.09497425211730702</v>
       </c>
       <c r="Q4">
-        <v>1.353797743149679</v>
+        <v>1.488827028254</v>
       </c>
       <c r="R4">
-        <v>1.353797743149679</v>
+        <v>13.399443254286</v>
       </c>
       <c r="S4">
-        <v>0.05301758647999968</v>
+        <v>0.03897867684759369</v>
       </c>
       <c r="T4">
-        <v>0.05301758647999968</v>
+        <v>0.03897867684759368</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,61 +711,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D5" t="s">
         <v>21</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.382913583586757</v>
+        <v>0.4197659999999999</v>
       </c>
       <c r="H5">
-        <v>0.382913583586757</v>
+        <v>1.259298</v>
       </c>
       <c r="I5">
-        <v>0.5431357083184015</v>
+        <v>0.4104130959562529</v>
       </c>
       <c r="J5">
-        <v>0.5431357083184015</v>
+        <v>0.4104130959562529</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>2.66235533921757</v>
+        <v>2.801381000000001</v>
       </c>
       <c r="N5">
-        <v>2.66235533921757</v>
+        <v>8.404143000000001</v>
       </c>
       <c r="O5">
-        <v>0.07350630693463599</v>
+        <v>0.07501378435166073</v>
       </c>
       <c r="P5">
-        <v>0.07350630693463599</v>
+        <v>0.07501378435166071</v>
       </c>
       <c r="Q5">
-        <v>1.019452023721136</v>
+        <v>1.175924496846</v>
       </c>
       <c r="R5">
-        <v>1.019452023721136</v>
+        <v>10.583320471614</v>
       </c>
       <c r="S5">
-        <v>0.03992390008281334</v>
+        <v>0.0307866394751598</v>
       </c>
       <c r="T5">
-        <v>0.03992390008281334</v>
+        <v>0.03078663947515979</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -773,61 +773,61 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6" t="s">
         <v>22</v>
       </c>
-      <c r="C6" t="s">
-        <v>23</v>
-      </c>
-      <c r="D6" t="s">
-        <v>26</v>
-      </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.382913583586757</v>
+        <v>0.4197659999999999</v>
       </c>
       <c r="H6">
-        <v>0.382913583586757</v>
+        <v>1.259298</v>
       </c>
       <c r="I6">
-        <v>0.5431357083184015</v>
+        <v>0.4104130959562529</v>
       </c>
       <c r="J6">
-        <v>0.5431357083184015</v>
+        <v>0.4104130959562529</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>5.6519131392724</v>
+        <v>6.114294</v>
       </c>
       <c r="N6">
-        <v>5.6519131392724</v>
+        <v>18.342882</v>
       </c>
       <c r="O6">
-        <v>0.1560465110962065</v>
+        <v>0.1637250811577051</v>
       </c>
       <c r="P6">
-        <v>0.1560465110962065</v>
+        <v>0.1637250811577051</v>
       </c>
       <c r="Q6">
-        <v>2.164194314279872</v>
+        <v>2.566572735204</v>
       </c>
       <c r="R6">
-        <v>2.164194314279872</v>
+        <v>23.099154616836</v>
       </c>
       <c r="S6">
-        <v>0.08475443233485341</v>
+        <v>0.06719491744362252</v>
       </c>
       <c r="T6">
-        <v>0.08475443233485341</v>
+        <v>0.06719491744362251</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -835,61 +835,61 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>0.322091772758332</v>
+        <v>0.5921903333333333</v>
       </c>
       <c r="H7">
-        <v>0.322091772758332</v>
+        <v>1.776571</v>
       </c>
       <c r="I7">
-        <v>0.4568642916815985</v>
+        <v>0.5789956025468922</v>
       </c>
       <c r="J7">
-        <v>0.4568642916815985</v>
+        <v>0.5789956025468922</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>11.9386676873139</v>
+        <v>12.42467</v>
       </c>
       <c r="N7">
-        <v>11.9386676873139</v>
+        <v>37.27401</v>
       </c>
       <c r="O7">
-        <v>0.3296206777838384</v>
+        <v>0.3327007343951245</v>
       </c>
       <c r="P7">
-        <v>0.3296206777838384</v>
+        <v>0.3327007343951245</v>
       </c>
       <c r="Q7">
-        <v>3.84534663977955</v>
+        <v>7.357769468856665</v>
       </c>
       <c r="R7">
-        <v>3.84534663977955</v>
+        <v>66.21992521970999</v>
       </c>
       <c r="S7">
-        <v>0.1505919174793217</v>
+        <v>0.1926322621788986</v>
       </c>
       <c r="T7">
-        <v>0.1505919174793217</v>
+        <v>0.1926322621788986</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -897,61 +897,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>0.322091772758332</v>
+        <v>0.5921903333333333</v>
       </c>
       <c r="H8">
-        <v>0.322091772758332</v>
+        <v>1.776571</v>
       </c>
       <c r="I8">
-        <v>0.4568642916815985</v>
+        <v>0.5789956025468922</v>
       </c>
       <c r="J8">
-        <v>0.4568642916815985</v>
+        <v>0.5789956025468922</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>12.4309598417779</v>
+        <v>12.45773566666667</v>
       </c>
       <c r="N8">
-        <v>12.4309598417779</v>
+        <v>37.373207</v>
       </c>
       <c r="O8">
-        <v>0.3432126193532078</v>
+        <v>0.3335861479782027</v>
       </c>
       <c r="P8">
-        <v>0.3432126193532078</v>
+        <v>0.3335861479782027</v>
       </c>
       <c r="Q8">
-        <v>4.003909892525878</v>
+        <v>7.377350637021888</v>
       </c>
       <c r="R8">
-        <v>4.003909892525878</v>
+        <v>66.39615573319699</v>
       </c>
       <c r="S8">
-        <v>0.1568015902369894</v>
+        <v>0.1931449127499362</v>
       </c>
       <c r="T8">
-        <v>0.1568015902369894</v>
+        <v>0.1931449127499362</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -959,61 +959,61 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C9" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D9" t="s">
         <v>20</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>0.322091772758332</v>
+        <v>0.5921903333333333</v>
       </c>
       <c r="H9">
-        <v>0.322091772758332</v>
+        <v>1.776571</v>
       </c>
       <c r="I9">
-        <v>0.4568642916815985</v>
+        <v>0.5789956025468922</v>
       </c>
       <c r="J9">
-        <v>0.4568642916815985</v>
+        <v>0.5789956025468922</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>3.53551767599529</v>
+        <v>3.546802333333333</v>
       </c>
       <c r="N9">
-        <v>3.53551767599529</v>
+        <v>10.640407</v>
       </c>
       <c r="O9">
-        <v>0.09761388483211138</v>
+        <v>0.09497425211730705</v>
       </c>
       <c r="P9">
-        <v>0.09761388483211138</v>
+        <v>0.09497425211730702</v>
       </c>
       <c r="Q9">
-        <v>1.138761155879741</v>
+        <v>2.100382056044111</v>
       </c>
       <c r="R9">
-        <v>1.138761155879741</v>
+        <v>18.903438504397</v>
       </c>
       <c r="S9">
-        <v>0.04459629835211169</v>
+        <v>0.05498967433110065</v>
       </c>
       <c r="T9">
-        <v>0.04459629835211169</v>
+        <v>0.05498967433110063</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1021,61 +1021,61 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C10" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D10" t="s">
         <v>21</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0.322091772758332</v>
+        <v>0.5921903333333333</v>
       </c>
       <c r="H10">
-        <v>0.322091772758332</v>
+        <v>1.776571</v>
       </c>
       <c r="I10">
-        <v>0.4568642916815985</v>
+        <v>0.5789956025468922</v>
       </c>
       <c r="J10">
-        <v>0.4568642916815985</v>
+        <v>0.5789956025468922</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>2.66235533921757</v>
+        <v>2.801381000000001</v>
       </c>
       <c r="N10">
-        <v>2.66235533921757</v>
+        <v>8.404143000000001</v>
       </c>
       <c r="O10">
-        <v>0.07350630693463599</v>
+        <v>0.07501378435166073</v>
       </c>
       <c r="P10">
-        <v>0.07350630693463599</v>
+        <v>0.07501378435166071</v>
       </c>
       <c r="Q10">
-        <v>0.8575227509211975</v>
+        <v>1.658950748183667</v>
       </c>
       <c r="R10">
-        <v>0.8575227509211975</v>
+        <v>14.930556733653</v>
       </c>
       <c r="S10">
-        <v>0.03358240685182264</v>
+        <v>0.04343265127001244</v>
       </c>
       <c r="T10">
-        <v>0.03358240685182264</v>
+        <v>0.04343265127001243</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1083,61 +1083,371 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" t="s">
+        <v>24</v>
+      </c>
+      <c r="D11" t="s">
         <v>22</v>
       </c>
-      <c r="C11" t="s">
+      <c r="E11">
+        <v>3</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>0.5921903333333333</v>
+      </c>
+      <c r="H11">
+        <v>1.776571</v>
+      </c>
+      <c r="I11">
+        <v>0.5789956025468922</v>
+      </c>
+      <c r="J11">
+        <v>0.5789956025468922</v>
+      </c>
+      <c r="K11">
+        <v>3</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>6.114294</v>
+      </c>
+      <c r="N11">
+        <v>18.342882</v>
+      </c>
+      <c r="O11">
+        <v>0.1637250811577051</v>
+      </c>
+      <c r="P11">
+        <v>0.1637250811577051</v>
+      </c>
+      <c r="Q11">
+        <v>3.620825801958</v>
+      </c>
+      <c r="R11">
+        <v>32.58743221762199</v>
+      </c>
+      <c r="S11">
+        <v>0.09479610201694429</v>
+      </c>
+      <c r="T11">
+        <v>0.09479610201694427</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
         <v>23</v>
       </c>
-      <c r="D11" t="s">
+      <c r="C12" t="s">
+        <v>24</v>
+      </c>
+      <c r="D12" t="s">
+        <v>25</v>
+      </c>
+      <c r="E12">
+        <v>1</v>
+      </c>
+      <c r="F12">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G12">
+        <v>0.01083266666666667</v>
+      </c>
+      <c r="H12">
+        <v>0.032498</v>
+      </c>
+      <c r="I12">
+        <v>0.01059130149685484</v>
+      </c>
+      <c r="J12">
+        <v>0.01059130149685484</v>
+      </c>
+      <c r="K12">
+        <v>3</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>12.42467</v>
+      </c>
+      <c r="N12">
+        <v>37.27401</v>
+      </c>
+      <c r="O12">
+        <v>0.3327007343951245</v>
+      </c>
+      <c r="P12">
+        <v>0.3327007343951245</v>
+      </c>
+      <c r="Q12">
+        <v>0.1345923085533333</v>
+      </c>
+      <c r="R12">
+        <v>1.21133077698</v>
+      </c>
+      <c r="S12">
+        <v>0.003523733786203787</v>
+      </c>
+      <c r="T12">
+        <v>0.003523733786203787</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" t="s">
+        <v>24</v>
+      </c>
+      <c r="D13" t="s">
         <v>26</v>
       </c>
-      <c r="E11">
-        <v>1</v>
-      </c>
-      <c r="F11">
-        <v>1</v>
-      </c>
-      <c r="G11">
-        <v>0.322091772758332</v>
-      </c>
-      <c r="H11">
-        <v>0.322091772758332</v>
-      </c>
-      <c r="I11">
-        <v>0.4568642916815985</v>
-      </c>
-      <c r="J11">
-        <v>0.4568642916815985</v>
-      </c>
-      <c r="K11">
-        <v>1</v>
-      </c>
-      <c r="L11">
-        <v>1</v>
-      </c>
-      <c r="M11">
-        <v>5.6519131392724</v>
-      </c>
-      <c r="N11">
-        <v>5.6519131392724</v>
-      </c>
-      <c r="O11">
-        <v>0.1560465110962065</v>
-      </c>
-      <c r="P11">
-        <v>0.1560465110962065</v>
-      </c>
-      <c r="Q11">
-        <v>1.820434722504357</v>
-      </c>
-      <c r="R11">
-        <v>1.820434722504357</v>
-      </c>
-      <c r="S11">
-        <v>0.07129207876135307</v>
-      </c>
-      <c r="T11">
-        <v>0.07129207876135307</v>
+      <c r="E13">
+        <v>1</v>
+      </c>
+      <c r="F13">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G13">
+        <v>0.01083266666666667</v>
+      </c>
+      <c r="H13">
+        <v>0.032498</v>
+      </c>
+      <c r="I13">
+        <v>0.01059130149685484</v>
+      </c>
+      <c r="J13">
+        <v>0.01059130149685484</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>12.45773566666667</v>
+      </c>
+      <c r="N13">
+        <v>37.373207</v>
+      </c>
+      <c r="O13">
+        <v>0.3335861479782027</v>
+      </c>
+      <c r="P13">
+        <v>0.3335861479782027</v>
+      </c>
+      <c r="Q13">
+        <v>0.1349504978984444</v>
+      </c>
+      <c r="R13">
+        <v>1.214554481086</v>
+      </c>
+      <c r="S13">
+        <v>0.003533111468411579</v>
+      </c>
+      <c r="T13">
+        <v>0.003533111468411578</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" t="s">
+        <v>23</v>
+      </c>
+      <c r="C14" t="s">
+        <v>24</v>
+      </c>
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14">
+        <v>1</v>
+      </c>
+      <c r="F14">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G14">
+        <v>0.01083266666666667</v>
+      </c>
+      <c r="H14">
+        <v>0.032498</v>
+      </c>
+      <c r="I14">
+        <v>0.01059130149685484</v>
+      </c>
+      <c r="J14">
+        <v>0.01059130149685484</v>
+      </c>
+      <c r="K14">
+        <v>3</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>3.546802333333333</v>
+      </c>
+      <c r="N14">
+        <v>10.640407</v>
+      </c>
+      <c r="O14">
+        <v>0.09497425211730705</v>
+      </c>
+      <c r="P14">
+        <v>0.09497425211730702</v>
+      </c>
+      <c r="Q14">
+        <v>0.03842132740955555</v>
+      </c>
+      <c r="R14">
+        <v>0.345791946686</v>
+      </c>
+      <c r="S14">
+        <v>0.001005900938612703</v>
+      </c>
+      <c r="T14">
+        <v>0.001005900938612703</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" t="s">
+        <v>23</v>
+      </c>
+      <c r="C15" t="s">
+        <v>24</v>
+      </c>
+      <c r="D15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15">
+        <v>1</v>
+      </c>
+      <c r="F15">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G15">
+        <v>0.01083266666666667</v>
+      </c>
+      <c r="H15">
+        <v>0.032498</v>
+      </c>
+      <c r="I15">
+        <v>0.01059130149685484</v>
+      </c>
+      <c r="J15">
+        <v>0.01059130149685484</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>2.801381000000001</v>
+      </c>
+      <c r="N15">
+        <v>8.404143000000001</v>
+      </c>
+      <c r="O15">
+        <v>0.07501378435166073</v>
+      </c>
+      <c r="P15">
+        <v>0.07501378435166071</v>
+      </c>
+      <c r="Q15">
+        <v>0.03034642657933334</v>
+      </c>
+      <c r="R15">
+        <v>0.273117839214</v>
+      </c>
+      <c r="S15">
+        <v>0.0007944936064884906</v>
+      </c>
+      <c r="T15">
+        <v>0.0007944936064884904</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" t="s">
+        <v>23</v>
+      </c>
+      <c r="C16" t="s">
+        <v>24</v>
+      </c>
+      <c r="D16" t="s">
+        <v>22</v>
+      </c>
+      <c r="E16">
+        <v>1</v>
+      </c>
+      <c r="F16">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G16">
+        <v>0.01083266666666667</v>
+      </c>
+      <c r="H16">
+        <v>0.032498</v>
+      </c>
+      <c r="I16">
+        <v>0.01059130149685484</v>
+      </c>
+      <c r="J16">
+        <v>0.01059130149685484</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>6.114294</v>
+      </c>
+      <c r="N16">
+        <v>18.342882</v>
+      </c>
+      <c r="O16">
+        <v>0.1637250811577051</v>
+      </c>
+      <c r="P16">
+        <v>0.1637250811577051</v>
+      </c>
+      <c r="Q16">
+        <v>0.06623410880399999</v>
+      </c>
+      <c r="R16">
+        <v>0.596106979236</v>
+      </c>
+      <c r="S16">
+        <v>0.001734061697138282</v>
+      </c>
+      <c r="T16">
+        <v>0.001734061697138282</v>
       </c>
     </row>
   </sheetData>
